--- a/DATA FOR IMPORT EXPORT/BCA/BCA-Sem-5-Subject-list-with-code-1.xlsx
+++ b/DATA FOR IMPORT EXPORT/BCA/BCA-Sem-5-Subject-list-with-code-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\CMSv5\DATA FOR IMPORT EXPORT\BCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF9112-BD55-4DBD-A292-A3240961DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6686A27-6DF7-4804-9511-F76B4160A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17380924-D82A-4E34-8882-86EEAA33F935}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17380924-D82A-4E34-8882-86EEAA33F935}"/>
   </bookViews>
   <sheets>
     <sheet name="SEM-5" sheetId="2" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Theary</t>
-  </si>
-  <si>
     <t>BCAAE200-1C</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Theory</t>
   </si>
 </sst>
 </file>
@@ -506,19 +506,19 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -555,16 +555,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>26515</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -573,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,16 +584,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>26517</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -613,16 +613,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>26958</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -631,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -642,19 +642,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>26959</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>26960</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -700,28 +700,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>26944</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -729,28 +729,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>26945</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -758,28 +758,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>26520</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -787,28 +787,28 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>25516</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
   </sheetData>
